--- a/qms/src/main/resources/report/template/iqc_electronic_report.xlsx
+++ b/qms/src/main/resources/report/template/iqc_electronic_report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\RD\qms\qms_server\src\main\resources\report\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RangDongProject\qms\qms\src\main\resources\report\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -764,100 +764,100 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1307,7 +1307,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:K12"/>
+      <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,185 +1323,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
       <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="28"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="3" spans="1:16" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="34" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="17" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="34" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="17" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="34" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="17" t="s">
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1516,26 +1516,26 @@
       <c r="D11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16" t="s">
+      <c r="K11" s="26"/>
+      <c r="L11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16" t="s">
+      <c r="M11" s="26"/>
+      <c r="N11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -1550,97 +1550,97 @@
       <c r="D12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43" t="s">
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43" t="s">
+      <c r="K12" s="25"/>
+      <c r="L12" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43" t="s">
+      <c r="M12" s="25"/>
+      <c r="N12" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" spans="1:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N14" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="14" t="s">
+      <c r="P14" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="8" t="s">
         <v>26</v>
       </c>
@@ -1650,16 +1650,16 @@
       <c r="F15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
     </row>
     <row r="16" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -1712,147 +1712,192 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
     <row r="18" spans="1:18" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="24"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="18"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
     <row r="19" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="37" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="39"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="21"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
     <row r="20" spans="1:18" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="42"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="24"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="18"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18" t="s">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="25" t="s">
+      <c r="E22" s="37"/>
+      <c r="F22" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="27"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:P9"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="F22:P22"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
     <mergeCell ref="A13:P13"/>
     <mergeCell ref="A10:P10"/>
     <mergeCell ref="C18:P18"/>
@@ -1869,51 +1914,6 @@
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="O14:O15"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="F22:P22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:P9"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="K14:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1938,112 +1938,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="32" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="17"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="32" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="32" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="17" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2063,14 +2063,14 @@
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="45"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="4" t="s">
         <v>44</v>
       </c>
@@ -2082,14 +2082,14 @@
       <c r="A10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="45"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="4" t="s">
         <v>50</v>
       </c>
@@ -2099,14 +2099,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
@@ -2123,6 +2115,14 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
